--- a/20160427 - 001/6. Logs/logs.xlsx
+++ b/20160427 - 001/6. Logs/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="49">
   <si>
     <t>Time</t>
   </si>
@@ -143,6 +143,24 @@
   </si>
   <si>
     <t>20160503_210345</t>
+  </si>
+  <si>
+    <t>20160504_111925</t>
+  </si>
+  <si>
+    <t>2 layers: [10-Sigmoid, 2-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 3000</t>
+  </si>
+  <si>
+    <t>20160504_120151</t>
+  </si>
+  <si>
+    <t>20160504_124348</t>
+  </si>
+  <si>
+    <t>20160504_132557</t>
+  </si>
+  <si>
+    <t>20160504_140903</t>
   </si>
 </sst>
 </file>
@@ -474,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1467,6 +1485,241 @@
         <v>0.33</v>
       </c>
     </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>0.940925061946151</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>0.894238661400859</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22">
+        <v>0.980014738468986</v>
+      </c>
+      <c r="N22">
+        <v>0.900514614286651</v>
+      </c>
+      <c r="O22">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23">
+        <v>0.926893687131945</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23">
+        <v>0.893063065424322</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23">
+        <v>0.970347537016808</v>
+      </c>
+      <c r="N23">
+        <v>0.902421376588883</v>
+      </c>
+      <c r="O23">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24">
+        <v>0.931513937507991</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24">
+        <v>0.885616992921178</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24">
+        <v>0.973403380091296</v>
+      </c>
+      <c r="N24">
+        <v>0.902181798303168</v>
+      </c>
+      <c r="O24">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25">
+        <v>0.933277296359242</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25">
+        <v>0.904973722331756</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25">
+        <v>0.970300865183992</v>
+      </c>
+      <c r="N25">
+        <v>0.894994374010569</v>
+      </c>
+      <c r="O25">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <v>0.932355488210639</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26">
+        <v>0.889666333414377</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26">
+        <v>0.970541689176161</v>
+      </c>
+      <c r="N26">
+        <v>0.902486031073094</v>
+      </c>
+      <c r="O26">
+        <v>0.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
